--- a/outputs-HGR-r202-archive/g__Anaeromassilibacillus_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Anaeromassilibacillus_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,17 +771,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_0.fasta</t>
+          <t>label_UMGS220_19.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9259578508830781</v>
+        <v>0.8023311938891307</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07404214911692188</v>
+        <v>0.1976688061108693</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9259578508830781</v>
+        <v>0.8023311938891307</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -792,17 +792,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_12.fasta</t>
+          <t>label_UMGS220_20.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9428487230164793</v>
+        <v>0.9254117380029333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05715127698352069</v>
+        <v>0.07458826199706667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9428487230164793</v>
+        <v>0.9254117380029333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -813,17 +813,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_22.fasta</t>
+          <t>label_UMGS220_31.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9133262125120538</v>
+        <v>0.6460634430775734</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08667378748794616</v>
+        <v>0.3539365569224266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9133262125120538</v>
+        <v>0.6460634430775734</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_25.fasta</t>
+          <t>label_UMGS220_37.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8697317594474947</v>
+        <v>0.7441580191611945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1302682405525052</v>
+        <v>0.2558419808388055</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8697317594474947</v>
+        <v>0.7441580191611945</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,17 +855,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_30.fasta</t>
+          <t>label_UMGS220_4.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7457396403279919</v>
+        <v>0.8228044703252405</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2542603596720082</v>
+        <v>0.1771955296747595</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7457396403279919</v>
+        <v>0.8228044703252405</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_45.fasta</t>
+          <t>label_UMGS220_40.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8785982800037297</v>
+        <v>0.8331603551455364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1214017199962703</v>
+        <v>0.1668396448544636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8785982800037297</v>
+        <v>0.8331603551455364</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -897,17 +897,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_53.fasta</t>
+          <t>label_UMGS220_42.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8813764184396748</v>
+        <v>0.8671848840752631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1186235815603251</v>
+        <v>0.132815115924737</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8813764184396748</v>
+        <v>0.8671848840752631</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -918,17 +918,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_57.fasta</t>
+          <t>label_UMGS220_47.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7310493022902168</v>
+        <v>0.7354943329967888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2689506977097832</v>
+        <v>0.2645056670032112</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7310493022902168</v>
+        <v>0.7354943329967888</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -939,38 +939,38 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_60.fasta</t>
+          <t>label_UMGS220_51.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.338741935105611</v>
+        <v>0.6111303068507099</v>
       </c>
       <c r="C21" t="n">
-        <v>0.661258064894389</v>
+        <v>0.3888696931492902</v>
       </c>
       <c r="D21" t="n">
-        <v>0.661258064894389</v>
+        <v>0.6111303068507099</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_7.fasta</t>
+          <t>label_UMGS220_56.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9266916526248768</v>
+        <v>0.7788906056190763</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07330834737512316</v>
+        <v>0.2211093943809237</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9266916526248768</v>
+        <v>0.7788906056190763</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -981,17 +981,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_9.fasta</t>
+          <t>label_UMGS220_58.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9276433868862248</v>
+        <v>0.545891368238699</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0723566131137752</v>
+        <v>0.454108631761301</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9276433868862248</v>
+        <v>0.545891368238699</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1002,17 +1002,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_19.fasta</t>
+          <t>label_UMGS220_59.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8023311938891307</v>
+        <v>0.5533615157782206</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1976688061108693</v>
+        <v>0.4466384842217795</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8023311938891307</v>
+        <v>0.5533615157782206</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1023,38 +1023,38 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_20.fasta</t>
+          <t>label_UMGS220_63.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9254117380029333</v>
+        <v>0.03652837771650164</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07458826199706667</v>
+        <v>0.9634716222834984</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9254117380029333</v>
+        <v>0.9634716222834984</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_31.fasta</t>
+          <t>label_UMGS220_1.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6460634430775734</v>
+        <v>0.7119152538410088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3539365569224266</v>
+        <v>0.2880847461589912</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6460634430775734</v>
+        <v>0.7119152538410088</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1065,17 +1065,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_37.fasta</t>
+          <t>label_UMGS220_11.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7441580191611945</v>
+        <v>0.7089336360382367</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2558419808388055</v>
+        <v>0.2910663639617633</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7441580191611945</v>
+        <v>0.7089336360382367</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1086,17 +1086,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_4.fasta</t>
+          <t>label_UMGS220_13.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8228044703252405</v>
+        <v>0.7567196625828128</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1771955296747595</v>
+        <v>0.2432803374171873</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8228044703252405</v>
+        <v>0.7567196625828128</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1107,17 +1107,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_40.fasta</t>
+          <t>label_UMGS220_15.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8331603551455364</v>
+        <v>0.8106933616380553</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1668396448544636</v>
+        <v>0.1893066383619447</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8331603551455364</v>
+        <v>0.8106933616380553</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1128,17 +1128,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_42.fasta</t>
+          <t>label_UMGS220_29.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8671848840752631</v>
+        <v>0.9247544693394519</v>
       </c>
       <c r="C30" t="n">
-        <v>0.132815115924737</v>
+        <v>0.07524553066054808</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8671848840752631</v>
+        <v>0.9247544693394519</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1149,17 +1149,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_47.fasta</t>
+          <t>label_UMGS220_32.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7354943329967888</v>
+        <v>0.9027922899736475</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2645056670032112</v>
+        <v>0.09720771002635253</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7354943329967888</v>
+        <v>0.9027922899736475</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1170,17 +1170,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_51.fasta</t>
+          <t>label_UMGS220_33.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6111303068507099</v>
+        <v>0.8427706215755285</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3888696931492902</v>
+        <v>0.1572293784244715</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6111303068507099</v>
+        <v>0.8427706215755285</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1191,17 +1191,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_56.fasta</t>
+          <t>label_UMGS220_35.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.7788906056190763</v>
+        <v>0.5823235845910787</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2211093943809237</v>
+        <v>0.4176764154089213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7788906056190763</v>
+        <v>0.5823235845910787</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1212,17 +1212,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_58.fasta</t>
+          <t>label_UMGS220_38.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.545891368238699</v>
+        <v>0.9190465430541112</v>
       </c>
       <c r="C34" t="n">
-        <v>0.454108631761301</v>
+        <v>0.08095345694588885</v>
       </c>
       <c r="D34" t="n">
-        <v>0.545891368238699</v>
+        <v>0.9190465430541112</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1233,17 +1233,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_59.fasta</t>
+          <t>label_UMGS220_46.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5533615157782206</v>
+        <v>0.8834574543193962</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4466384842217795</v>
+        <v>0.1165425456806039</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5533615157782206</v>
+        <v>0.8834574543193962</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1254,38 +1254,38 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_63.fasta</t>
+          <t>label_UMGS220_48.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03652837771650164</v>
+        <v>0.9183379593995938</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9634716222834984</v>
+        <v>0.08166204060040619</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9634716222834984</v>
+        <v>0.9183379593995938</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_1.fasta</t>
+          <t>label_UMGS220_5.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7119152538410088</v>
+        <v>0.6846211043804689</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2880847461589912</v>
+        <v>0.3153788956195311</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7119152538410088</v>
+        <v>0.6846211043804689</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1296,17 +1296,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_11.fasta</t>
+          <t>label_UMGS220_6.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7089336360382367</v>
+        <v>0.6076911226775801</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2910663639617633</v>
+        <v>0.3923088773224199</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7089336360382367</v>
+        <v>0.6076911226775801</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1317,38 +1317,38 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_13.fasta</t>
+          <t>label_UMGS220_62.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.7567196625828128</v>
+        <v>0.03767901758224113</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2432803374171873</v>
+        <v>0.9623209824177589</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7567196625828128</v>
+        <v>0.9623209824177589</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_15.fasta</t>
+          <t>label_UMGS220_14.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8106933616380553</v>
+        <v>0.8676394504818862</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1893066383619447</v>
+        <v>0.1323605495181139</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8106933616380553</v>
+        <v>0.8676394504818862</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1359,17 +1359,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_29.fasta</t>
+          <t>label_UMGS220_17.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9247544693394519</v>
+        <v>0.767617303364309</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07524553066054808</v>
+        <v>0.232382696635691</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9247544693394519</v>
+        <v>0.767617303364309</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1380,17 +1380,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_32.fasta</t>
+          <t>label_UMGS220_2.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9027922899736475</v>
+        <v>0.8538792362514649</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09720771002635253</v>
+        <v>0.1461207637485351</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9027922899736475</v>
+        <v>0.8538792362514649</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1401,17 +1401,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_33.fasta</t>
+          <t>label_UMGS220_21.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8427706215755285</v>
+        <v>0.9550159591721445</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1572293784244715</v>
+        <v>0.04498404082785547</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8427706215755285</v>
+        <v>0.9550159591721445</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1422,17 +1422,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_35.fasta</t>
+          <t>label_UMGS220_23.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5823235845910787</v>
+        <v>0.9078403710653588</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4176764154089213</v>
+        <v>0.09215962893464121</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5823235845910787</v>
+        <v>0.9078403710653588</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1443,17 +1443,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_38.fasta</t>
+          <t>label_UMGS220_24.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9190465430541112</v>
+        <v>0.9587600297415112</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08095345694588885</v>
+        <v>0.04123997025848882</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9190465430541112</v>
+        <v>0.9587600297415112</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1464,17 +1464,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_46.fasta</t>
+          <t>label_UMGS220_36.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8834574543193962</v>
+        <v>0.8868281931040942</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1165425456806039</v>
+        <v>0.1131718068959058</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8834574543193962</v>
+        <v>0.8868281931040942</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_48.fasta</t>
+          <t>label_UMGS220_39.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9183379593995938</v>
+        <v>0.7344811442883846</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08166204060040619</v>
+        <v>0.2655188557116154</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9183379593995938</v>
+        <v>0.7344811442883846</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1506,17 +1506,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_5.fasta</t>
+          <t>label_UMGS220_43.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6846211043804689</v>
+        <v>0.7601959111635715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3153788956195311</v>
+        <v>0.2398040888364283</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6846211043804689</v>
+        <v>0.7601959111635715</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1527,59 +1527,59 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_6.fasta</t>
+          <t>label_UMGS220_44.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6076911226775801</v>
+        <v>0.4815998715870808</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3923088773224199</v>
+        <v>0.5184001284129193</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6076911226775801</v>
+        <v>0.5184001284129193</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_62.fasta</t>
+          <t>label_UMGS220_49.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03767901758224113</v>
+        <v>0.9261527605586749</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9623209824177589</v>
+        <v>0.0738472394413251</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9623209824177589</v>
+        <v>0.9261527605586749</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_14.fasta</t>
+          <t>label_UMGS220_50.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8676394504818862</v>
+        <v>0.9200040541304972</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1323605495181139</v>
+        <v>0.0799959458695027</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8676394504818862</v>
+        <v>0.9200040541304972</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1590,17 +1590,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_17.fasta</t>
+          <t>label_UMGS220_54.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.767617303364309</v>
+        <v>0.7853649507319541</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232382696635691</v>
+        <v>0.2146350492680459</v>
       </c>
       <c r="D52" t="n">
-        <v>0.767617303364309</v>
+        <v>0.7853649507319541</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1611,17 +1611,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_2.fasta</t>
+          <t>label_UMGS220_55.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8538792362514649</v>
+        <v>0.8857478266825695</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1461207637485351</v>
+        <v>0.1142521733174306</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8538792362514649</v>
+        <v>0.8857478266825695</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1632,17 +1632,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_21.fasta</t>
+          <t>label_UMGS220_8.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9550159591721445</v>
+        <v>0.8489205110174367</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04498404082785547</v>
+        <v>0.1510794889825633</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9550159591721445</v>
+        <v>0.8489205110174367</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1653,17 +1653,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_23.fasta</t>
+          <t>label_UMGS220_10.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9078403710653588</v>
+        <v>0.9489138543739623</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09215962893464121</v>
+        <v>0.05108614562603777</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9078403710653588</v>
+        <v>0.9489138543739623</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1674,17 +1674,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_24.fasta</t>
+          <t>label_UMGS220_16.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9587600297415112</v>
+        <v>0.8658150995218582</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04123997025848882</v>
+        <v>0.1341849004781419</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9587600297415112</v>
+        <v>0.8658150995218582</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1695,17 +1695,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_36.fasta</t>
+          <t>label_UMGS220_18.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8868281931040942</v>
+        <v>0.9011953173134619</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1131718068959058</v>
+        <v>0.09880468268653805</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8868281931040942</v>
+        <v>0.9011953173134619</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1716,17 +1716,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_39.fasta</t>
+          <t>label_UMGS220_26.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.7344811442883846</v>
+        <v>0.9489637660728076</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2655188557116154</v>
+        <v>0.05103623392719232</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7344811442883846</v>
+        <v>0.9489637660728076</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1737,17 +1737,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_43.fasta</t>
+          <t>label_UMGS220_27.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.7601959111635715</v>
+        <v>0.9257033547773083</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2398040888364283</v>
+        <v>0.07429664522269179</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7601959111635715</v>
+        <v>0.9257033547773083</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1758,38 +1758,38 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_44.fasta</t>
+          <t>label_UMGS220_28.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.4815998715870808</v>
+        <v>0.9510289479038504</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5184001284129193</v>
+        <v>0.04897105209614964</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5184001284129193</v>
+        <v>0.9510289479038504</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_49.fasta</t>
+          <t>label_UMGS220_3.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9261527605586749</v>
+        <v>0.9463719753416603</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0738472394413251</v>
+        <v>0.05362802465833974</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9261527605586749</v>
+        <v>0.9463719753416603</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1800,17 +1800,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_50.fasta</t>
+          <t>label_UMGS220_34.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9200040541304972</v>
+        <v>0.8569488148573345</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0799959458695027</v>
+        <v>0.1430511851426655</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9200040541304972</v>
+        <v>0.8569488148573345</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_54.fasta</t>
+          <t>label_UMGS220_41.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.7853649507319541</v>
+        <v>0.9148469986641155</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2146350492680459</v>
+        <v>0.08515300133588455</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7853649507319541</v>
+        <v>0.9148469986641155</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1842,17 +1842,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_55.fasta</t>
+          <t>label_UMGS220_52.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8857478266825695</v>
+        <v>0.8442684671876184</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1142521733174306</v>
+        <v>0.1557315328123816</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8857478266825695</v>
+        <v>0.8442684671876184</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1863,250 +1863,19 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS220_8.fasta</t>
+          <t>label_UMGS220_61.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.8489205110174367</v>
+        <v>0.001216320949842364</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1510794889825633</v>
+        <v>0.9987836790501576</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8489205110174367</v>
+        <v>0.9987836790501576</v>
       </c>
       <c r="E65" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_10.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9489138543739623</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.05108614562603777</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9489138543739623</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_16.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.8658150995218582</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.1341849004781419</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.8658150995218582</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_18.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9011953173134619</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.09880468268653805</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9011953173134619</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_26.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9489637660728076</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.05103623392719232</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9489637660728076</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_27.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9257033547773083</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.07429664522269179</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9257033547773083</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_28.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9510289479038504</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.04897105209614964</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9510289479038504</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_3.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9463719753416603</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.05362802465833974</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9463719753416603</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_34.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.8569488148573345</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.1430511851426655</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.8569488148573345</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_41.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9148469986641155</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.08515300133588455</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9148469986641155</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_52.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.8442684671876184</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.1557315328123816</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.8442684671876184</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS220_61.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.001216320949842364</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.9987836790501576</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9987836790501576</v>
-      </c>
-      <c r="E76" t="inlineStr">
         <is>
           <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
@@ -2123,7 +1892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2392,17 +2161,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_12.fasta</t>
+          <t>label_UMGS41_1.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05007887446739612</v>
+        <v>0.06340453122933176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9499211255326039</v>
+        <v>0.9365954687706682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9499211255326039</v>
+        <v>0.9365954687706682</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2413,38 +2182,38 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_16.fasta</t>
+          <t>label_UMGS41_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2910395212387338</v>
+        <v>0.5112558521010059</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7089604787612662</v>
+        <v>0.4887441478989941</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7089604787612662</v>
+        <v>0.5112558521010059</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_18.fasta</t>
+          <t>label_UMGS41_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05664803731842516</v>
+        <v>0.09213049150529151</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9433519626815748</v>
+        <v>0.9078695084947085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9433519626815748</v>
+        <v>0.9078695084947085</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2455,17 +2224,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_2.fasta</t>
+          <t>label_UMGS41_23.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.34854928654791</v>
+        <v>0.1980436663826432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.65145071345209</v>
+        <v>0.8019563336173569</v>
       </c>
       <c r="D16" t="n">
-        <v>0.65145071345209</v>
+        <v>0.8019563336173569</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2476,17 +2245,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_28.fasta</t>
+          <t>label_UMGS41_27.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2018983014205662</v>
+        <v>0.4577012672799861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7981016985794338</v>
+        <v>0.5422987327200139</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7981016985794338</v>
+        <v>0.5422987327200139</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2497,17 +2266,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_29.fasta</t>
+          <t>label_UMGS41_32.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1260542007138713</v>
+        <v>0.1825830066196134</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8739457992861288</v>
+        <v>0.8174169933803866</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8739457992861288</v>
+        <v>0.8174169933803866</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2518,38 +2287,38 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_30.fasta</t>
+          <t>label_UMGS41_37.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3369775576803294</v>
+        <v>0.6417956975691559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6630224423196706</v>
+        <v>0.3582043024308442</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6630224423196706</v>
+        <v>0.6417956975691559</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_4.fasta</t>
+          <t>label_UMGS41_40.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6784770135013518</v>
+        <v>0.6604015179563227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3215229864986481</v>
+        <v>0.3395984820436772</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6784770135013518</v>
+        <v>0.6604015179563227</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2560,59 +2329,59 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_43.fasta</t>
+          <t>label_UMGS41_46.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5227257909977743</v>
+        <v>0.03069695501481706</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4772742090022258</v>
+        <v>0.9693030449851829</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5227257909977743</v>
+        <v>0.9693030449851829</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_45.fasta</t>
+          <t>label_UMGS41_15.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5631217345239833</v>
+        <v>0.2469829130297485</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4368782654760167</v>
+        <v>0.7530170869702515</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5631217345239833</v>
+        <v>0.7530170869702515</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_47.fasta</t>
+          <t>label_UMGS41_17.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1876300873077169</v>
+        <v>0.1566425308637984</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8123699126922831</v>
+        <v>0.8433574691362016</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8123699126922831</v>
+        <v>0.8433574691362016</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2623,17 +2392,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_1.fasta</t>
+          <t>label_UMGS41_20.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06340453122933176</v>
+        <v>0.2588786027381149</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9365954687706682</v>
+        <v>0.7411213972618851</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9365954687706682</v>
+        <v>0.7411213972618851</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2644,38 +2413,38 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_10.fasta</t>
+          <t>label_UMGS41_25.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5112558521010059</v>
+        <v>0.2824262505774673</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4887441478989941</v>
+        <v>0.7175737494225327</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5112558521010059</v>
+        <v>0.7175737494225327</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_11.fasta</t>
+          <t>label_UMGS41_3.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09213049150529151</v>
+        <v>0.1012965228006755</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9078695084947085</v>
+        <v>0.8987034771993245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9078695084947085</v>
+        <v>0.8987034771993245</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2686,17 +2455,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_23.fasta</t>
+          <t>label_UMGS41_35.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1980436663826432</v>
+        <v>0.4974412615789351</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8019563336173569</v>
+        <v>0.5025587384210649</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8019563336173569</v>
+        <v>0.5025587384210649</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2707,17 +2476,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_27.fasta</t>
+          <t>label_UMGS41_39.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4577012672799861</v>
+        <v>0.3535880256873797</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5422987327200139</v>
+        <v>0.6464119743126203</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5422987327200139</v>
+        <v>0.6464119743126203</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2728,17 +2497,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_32.fasta</t>
+          <t>label_UMGS41_7.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1825830066196134</v>
+        <v>0.1160569881989694</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8174169933803866</v>
+        <v>0.8839430118010306</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8174169933803866</v>
+        <v>0.8839430118010306</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2749,80 +2518,80 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_37.fasta</t>
+          <t>label_UMGS41_9.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6417956975691559</v>
+        <v>0.3261474328223288</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3582043024308442</v>
+        <v>0.6738525671776712</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6417956975691559</v>
+        <v>0.6738525671776712</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_40.fasta</t>
+          <t>label_UMGS41_13.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6604015179563227</v>
+        <v>0.192815310632422</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3395984820436772</v>
+        <v>0.807184689367578</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6604015179563227</v>
+        <v>0.807184689367578</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_46.fasta</t>
+          <t>label_UMGS41_19.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03069695501481706</v>
+        <v>0.5724067382603417</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9693030449851829</v>
+        <v>0.4275932617396583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9693030449851829</v>
+        <v>0.5724067382603417</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_15.fasta</t>
+          <t>label_UMGS41_22.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2469829130297485</v>
+        <v>0.09458949251314763</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7530170869702515</v>
+        <v>0.9054105074868524</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7530170869702515</v>
+        <v>0.9054105074868524</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2833,38 +2602,38 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_17.fasta</t>
+          <t>label_UMGS41_26.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1566425308637984</v>
+        <v>0.5898714759256685</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8433574691362016</v>
+        <v>0.4101285240743315</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8433574691362016</v>
+        <v>0.5898714759256685</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_20.fasta</t>
+          <t>label_UMGS41_33.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2588786027381149</v>
+        <v>0.2635454103265988</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7411213972618851</v>
+        <v>0.7364545896734012</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7411213972618851</v>
+        <v>0.7364545896734012</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2875,38 +2644,38 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_25.fasta</t>
+          <t>label_UMGS41_34.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2824262505774673</v>
+        <v>0.8126582912772011</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7175737494225327</v>
+        <v>0.1873417087227989</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7175737494225327</v>
+        <v>0.8126582912772011</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
+          <t>s__Anaeromassilibacillus sp001305115</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_3.fasta</t>
+          <t>label_UMGS41_36.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1012965228006755</v>
+        <v>0.4098862041487329</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8987034771993245</v>
+        <v>0.5901137958512671</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8987034771993245</v>
+        <v>0.5901137958512671</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2917,17 +2686,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_35.fasta</t>
+          <t>label_UMGS41_5.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4974412615789351</v>
+        <v>0.2476869221014665</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5025587384210649</v>
+        <v>0.7523130778985335</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5025587384210649</v>
+        <v>0.7523130778985335</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2938,17 +2707,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_39.fasta</t>
+          <t>label_UMGS41_0.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3535880256873797</v>
+        <v>0.1307783437608191</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6464119743126203</v>
+        <v>0.8692216562391809</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6464119743126203</v>
+        <v>0.8692216562391809</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2959,17 +2728,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_7.fasta</t>
+          <t>label_UMGS41_14.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1160569881989694</v>
+        <v>0.1629676262101991</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8839430118010306</v>
+        <v>0.8370323737898009</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8839430118010306</v>
+        <v>0.8370323737898009</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2980,17 +2749,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_9.fasta</t>
+          <t>label_UMGS41_21.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3261474328223288</v>
+        <v>0.1694808858086799</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6738525671776712</v>
+        <v>0.8305191141913201</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6738525671776712</v>
+        <v>0.8305191141913201</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3001,17 +2770,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_13.fasta</t>
+          <t>label_UMGS41_24.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.192815310632422</v>
+        <v>0.1795506143404553</v>
       </c>
       <c r="C42" t="n">
-        <v>0.807184689367578</v>
+        <v>0.8204493856595447</v>
       </c>
       <c r="D42" t="n">
-        <v>0.807184689367578</v>
+        <v>0.8204493856595447</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3022,38 +2791,38 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_19.fasta</t>
+          <t>label_UMGS41_31.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5724067382603417</v>
+        <v>0.1778255760784471</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4275932617396583</v>
+        <v>0.8221744239215529</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5724067382603417</v>
+        <v>0.8221744239215529</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_22.fasta</t>
+          <t>label_UMGS41_38.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09458949251314763</v>
+        <v>0.4692069638235512</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9054105074868524</v>
+        <v>0.5307930361764488</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9054105074868524</v>
+        <v>0.5307930361764488</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3064,17 +2833,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_26.fasta</t>
+          <t>label_UMGS41_41.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5898714759256685</v>
+        <v>0.5764839497525063</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4101285240743315</v>
+        <v>0.4235160502474937</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5898714759256685</v>
+        <v>0.5764839497525063</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3085,17 +2854,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_33.fasta</t>
+          <t>label_UMGS41_42.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2635454103265988</v>
+        <v>0.4338010124915415</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7364545896734012</v>
+        <v>0.5661989875084585</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7364545896734012</v>
+        <v>0.5661989875084585</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3106,38 +2875,38 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_34.fasta</t>
+          <t>label_UMGS41_44.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8126582912772011</v>
+        <v>0.2292876834284907</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1873417087227989</v>
+        <v>0.7707123165715093</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8126582912772011</v>
+        <v>0.7707123165715093</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
+          <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_36.fasta</t>
+          <t>label_UMGS41_6.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.4098862041487329</v>
+        <v>0.06840262955932419</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5901137958512671</v>
+        <v>0.9315973704406759</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5901137958512671</v>
+        <v>0.9315973704406759</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3148,250 +2917,19 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS41_5.fasta</t>
+          <t>label_UMGS41_8.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2476869221014665</v>
+        <v>0.05574046234048724</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7523130778985335</v>
+        <v>0.9442595376595128</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7523130778985335</v>
+        <v>0.9442595376595128</v>
       </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_0.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.1307783437608191</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.8692216562391809</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.8692216562391809</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_14.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.1629676262101991</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.8370323737898009</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.8370323737898009</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_21.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.1694808858086799</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.8305191141913201</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.8305191141913201</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_24.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.1795506143404553</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.8204493856595447</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.8204493856595447</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_31.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.1778255760784471</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.8221744239215529</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.8221744239215529</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_38.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.4692069638235512</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5307930361764488</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5307930361764488</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_41.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5764839497525063</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.4235160502474937</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5764839497525063</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp001305115</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_42.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.4338010124915415</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5661989875084585</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5661989875084585</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_44.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.2292876834284907</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.7707123165715093</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.7707123165715093</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_6.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.06840262955932419</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.9315973704406759</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9315973704406759</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>s__Anaeromassilibacillus sp002159845</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS41_8.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.05574046234048724</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.9442595376595128</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9442595376595128</v>
-      </c>
-      <c r="E60" t="inlineStr">
         <is>
           <t>s__Anaeromassilibacillus sp002159845</t>
         </is>
